--- a/data/DATASET_BARCELONA_PROYECT.xlsx
+++ b/data/DATASET_BARCELONA_PROYECT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmend\Desktop\dataset-proyect-villa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E81B61C6-2934-4507-AF17-6102B543197D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4435BC3-1FBE-421B-9AAE-8C64A09184F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D7AE5A2-E818-4B7F-AD95-391B5E91DF03}"/>
+    <workbookView xWindow="1440" yWindow="948" windowWidth="21600" windowHeight="11292" xr2:uid="{4D7AE5A2-E818-4B7F-AD95-391B5E91DF03}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1010,16 +1010,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8975DCC3-E48C-4F2F-883F-12668F609589}">
   <dimension ref="A1:AK515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -3844,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -5539,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -5765,7 +5766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -5991,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6669,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -7345,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -8023,7 +8024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -8249,7 +8250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -8927,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -9040,7 +9041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -9379,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -9492,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -9605,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>3</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -10848,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>3</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>3</v>
       </c>
@@ -11187,7 +11188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>4</v>
       </c>
@@ -11300,7 +11301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>4</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -11526,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -11639,7 +11640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -11752,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>4</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -11978,7 +11979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -12091,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -12204,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -12317,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>4</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>4</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>4</v>
       </c>
@@ -12769,7 +12770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>4</v>
       </c>
@@ -12882,7 +12883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>4</v>
       </c>
@@ -12995,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>4</v>
       </c>
@@ -13221,7 +13222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>4</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>4</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>4</v>
       </c>
@@ -13560,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>4</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>4</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>4</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -14012,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>4</v>
       </c>
@@ -14125,7 +14126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>4</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>4</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -14464,7 +14465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -14577,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>4</v>
       </c>
@@ -14803,7 +14804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>4</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>4</v>
       </c>
@@ -15029,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>5</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>5</v>
       </c>
@@ -15255,7 +15256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>5</v>
       </c>
@@ -15368,7 +15369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>5</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>5</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>5</v>
       </c>
@@ -15707,7 +15708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>5</v>
       </c>
@@ -15820,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>5</v>
       </c>
@@ -15933,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>5</v>
       </c>
@@ -16046,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>5</v>
       </c>
@@ -16159,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>5</v>
       </c>
@@ -16272,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>5</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>5</v>
       </c>
@@ -16498,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>5</v>
       </c>
@@ -16611,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>5</v>
       </c>
@@ -16724,7 +16725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>5</v>
       </c>
@@ -16837,7 +16838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>5</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>5</v>
       </c>
@@ -17063,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -17176,7 +17177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>5</v>
       </c>
@@ -17289,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>5</v>
       </c>
@@ -17402,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>5</v>
       </c>
@@ -17515,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>5</v>
       </c>
@@ -17628,7 +17629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>5</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -17854,7 +17855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>5</v>
       </c>
@@ -17967,7 +17968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>5</v>
       </c>
@@ -18080,7 +18081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>6</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>6</v>
       </c>
@@ -18306,7 +18307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>6</v>
       </c>
@@ -18419,7 +18420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>6</v>
       </c>
@@ -18532,7 +18533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>6</v>
       </c>
@@ -18645,7 +18646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>6</v>
       </c>
@@ -18758,7 +18759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>6</v>
       </c>
@@ -18871,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>6</v>
       </c>
@@ -18984,7 +18985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>6</v>
       </c>
@@ -19097,7 +19098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>6</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>6</v>
       </c>
@@ -19323,7 +19324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>6</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>6</v>
       </c>
@@ -19549,7 +19550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>6</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>6</v>
       </c>
@@ -19775,7 +19776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>6</v>
       </c>
@@ -19888,7 +19889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>6</v>
       </c>
@@ -20001,7 +20002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>6</v>
       </c>
@@ -20114,7 +20115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>6</v>
       </c>
@@ -20227,7 +20228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>6</v>
       </c>
@@ -20340,7 +20341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>6</v>
       </c>
@@ -20453,7 +20454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>6</v>
       </c>
@@ -20566,7 +20567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>6</v>
       </c>
@@ -20679,7 +20680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>6</v>
       </c>
@@ -20792,7 +20793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>6</v>
       </c>
@@ -20905,7 +20906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>6</v>
       </c>
@@ -21018,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>6</v>
       </c>
@@ -21131,7 +21132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>6</v>
       </c>
@@ -21244,7 +21245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>6</v>
       </c>
@@ -21357,7 +21358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>6</v>
       </c>
@@ -21470,7 +21471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -21583,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>6</v>
       </c>
@@ -21696,7 +21697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>6</v>
       </c>
@@ -21809,7 +21810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>6</v>
       </c>
@@ -21922,7 +21923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>6</v>
       </c>
@@ -22035,7 +22036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>6</v>
       </c>
@@ -22148,7 +22149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>7</v>
       </c>
@@ -22261,7 +22262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>7</v>
       </c>
@@ -22374,7 +22375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>7</v>
       </c>
@@ -22487,7 +22488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>7</v>
       </c>
@@ -22600,7 +22601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>7</v>
       </c>
@@ -22713,7 +22714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>7</v>
       </c>
@@ -22826,7 +22827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>7</v>
       </c>
@@ -22939,7 +22940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>7</v>
       </c>
@@ -23052,7 +23053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>7</v>
       </c>
@@ -23165,7 +23166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>7</v>
       </c>
@@ -23278,7 +23279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>7</v>
       </c>
@@ -23391,7 +23392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>7</v>
       </c>
@@ -23504,7 +23505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>7</v>
       </c>
@@ -23617,7 +23618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>7</v>
       </c>
@@ -23730,7 +23731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>7</v>
       </c>
@@ -23843,7 +23844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>7</v>
       </c>
@@ -23956,7 +23957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>7</v>
       </c>
@@ -24069,7 +24070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>7</v>
       </c>
@@ -24182,7 +24183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>7</v>
       </c>
@@ -24295,7 +24296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>7</v>
       </c>
@@ -24408,7 +24409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>7</v>
       </c>
@@ -24521,7 +24522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>7</v>
       </c>
@@ -24634,7 +24635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>7</v>
       </c>
@@ -24747,7 +24748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>7</v>
       </c>
@@ -24860,7 +24861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>7</v>
       </c>
@@ -24973,7 +24974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>7</v>
       </c>
@@ -25086,7 +25087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>7</v>
       </c>
@@ -25199,7 +25200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>7</v>
       </c>
@@ -25312,7 +25313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>7</v>
       </c>
@@ -25425,7 +25426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>7</v>
       </c>
@@ -25538,7 +25539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>7</v>
       </c>
@@ -25651,7 +25652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>7</v>
       </c>
@@ -25764,7 +25765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>7</v>
       </c>
@@ -25877,7 +25878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>7</v>
       </c>
@@ -25990,7 +25991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>7</v>
       </c>
@@ -26103,7 +26104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>8</v>
       </c>
@@ -26216,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>8</v>
       </c>
@@ -26329,7 +26330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>8</v>
       </c>
@@ -26442,7 +26443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>8</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>8</v>
       </c>
@@ -26668,7 +26669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>8</v>
       </c>
@@ -26781,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>8</v>
       </c>
@@ -26894,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>8</v>
       </c>
@@ -27007,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>8</v>
       </c>
@@ -27120,7 +27121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>8</v>
       </c>
@@ -27233,7 +27234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>8</v>
       </c>
@@ -27346,7 +27347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>8</v>
       </c>
@@ -27459,7 +27460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>8</v>
       </c>
@@ -27572,7 +27573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>8</v>
       </c>
@@ -27685,7 +27686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>8</v>
       </c>
@@ -27798,7 +27799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>8</v>
       </c>
@@ -27911,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>8</v>
       </c>
@@ -28024,7 +28025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>8</v>
       </c>
@@ -28137,7 +28138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>8</v>
       </c>
@@ -28250,7 +28251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>8</v>
       </c>
@@ -28363,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>8</v>
       </c>
@@ -28476,7 +28477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>8</v>
       </c>
@@ -28589,7 +28590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>8</v>
       </c>
@@ -28702,7 +28703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>8</v>
       </c>
@@ -28815,7 +28816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>8</v>
       </c>
@@ -28928,7 +28929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>8</v>
       </c>
@@ -29041,7 +29042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>8</v>
       </c>
@@ -29154,7 +29155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>8</v>
       </c>
@@ -29267,7 +29268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>8</v>
       </c>
@@ -29380,7 +29381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>8</v>
       </c>
@@ -29493,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>8</v>
       </c>
@@ -29606,7 +29607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>8</v>
       </c>
@@ -29719,7 +29720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>8</v>
       </c>
@@ -29832,7 +29833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>8</v>
       </c>
@@ -29945,7 +29946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>8</v>
       </c>
@@ -30058,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>9</v>
       </c>
@@ -30171,7 +30172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>9</v>
       </c>
@@ -30284,7 +30285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>9</v>
       </c>
@@ -30397,7 +30398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>9</v>
       </c>
@@ -30510,7 +30511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>9</v>
       </c>
@@ -30623,7 +30624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>9</v>
       </c>
@@ -30736,7 +30737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>9</v>
       </c>
@@ -30849,7 +30850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>9</v>
       </c>
@@ -30962,7 +30963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>9</v>
       </c>
@@ -31075,7 +31076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>9</v>
       </c>
@@ -31188,7 +31189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>9</v>
       </c>
@@ -31301,7 +31302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>9</v>
       </c>
@@ -31414,7 +31415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>9</v>
       </c>
@@ -31527,7 +31528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>9</v>
       </c>
@@ -31640,7 +31641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>9</v>
       </c>
@@ -31753,7 +31754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>9</v>
       </c>
@@ -31866,7 +31867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>9</v>
       </c>
@@ -31979,7 +31980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>9</v>
       </c>
@@ -32092,7 +32093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>9</v>
       </c>
@@ -32205,7 +32206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>9</v>
       </c>
@@ -32318,7 +32319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>9</v>
       </c>
@@ -32431,7 +32432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>9</v>
       </c>
@@ -32544,7 +32545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>9</v>
       </c>
@@ -32657,7 +32658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>9</v>
       </c>
@@ -32770,7 +32771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>9</v>
       </c>
@@ -32883,7 +32884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>9</v>
       </c>
@@ -32996,7 +32997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>9</v>
       </c>
@@ -33109,7 +33110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>9</v>
       </c>
@@ -33222,7 +33223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>9</v>
       </c>
@@ -33335,7 +33336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>9</v>
       </c>
@@ -33448,7 +33449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>9</v>
       </c>
@@ -33561,7 +33562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>10</v>
       </c>
@@ -33674,7 +33675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>10</v>
       </c>
@@ -33787,7 +33788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>10</v>
       </c>
@@ -33900,7 +33901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>10</v>
       </c>
@@ -34013,7 +34014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>10</v>
       </c>
@@ -34126,7 +34127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>10</v>
       </c>
@@ -34239,7 +34240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>10</v>
       </c>
@@ -34352,7 +34353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>10</v>
       </c>
@@ -34465,7 +34466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>10</v>
       </c>
@@ -34578,7 +34579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>10</v>
       </c>
@@ -34691,7 +34692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>10</v>
       </c>
@@ -34804,7 +34805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>10</v>
       </c>
@@ -34917,7 +34918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>11</v>
       </c>
@@ -35030,7 +35031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>11</v>
       </c>
@@ -35143,7 +35144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>11</v>
       </c>
@@ -35256,7 +35257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>11</v>
       </c>
@@ -35369,7 +35370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>11</v>
       </c>
@@ -35482,7 +35483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>11</v>
       </c>
@@ -35595,7 +35596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>11</v>
       </c>
@@ -35708,7 +35709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>11</v>
       </c>
@@ -35821,7 +35822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>11</v>
       </c>
@@ -35934,7 +35935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>11</v>
       </c>
@@ -36047,7 +36048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>11</v>
       </c>
@@ -36160,7 +36161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>11</v>
       </c>
@@ -36273,7 +36274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>11</v>
       </c>
@@ -36386,7 +36387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>11</v>
       </c>
@@ -36499,7 +36500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>11</v>
       </c>
@@ -36612,7 +36613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>11</v>
       </c>
@@ -36725,7 +36726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>11</v>
       </c>
@@ -36838,7 +36839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>11</v>
       </c>
@@ -36951,7 +36952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>11</v>
       </c>
@@ -37064,7 +37065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>11</v>
       </c>
@@ -37177,7 +37178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>11</v>
       </c>
@@ -37290,7 +37291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>11</v>
       </c>
@@ -37403,7 +37404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>11</v>
       </c>
@@ -37516,7 +37517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>11</v>
       </c>
@@ -37629,7 +37630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>11</v>
       </c>
@@ -37742,7 +37743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>11</v>
       </c>
@@ -37855,7 +37856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>11</v>
       </c>
@@ -37968,7 +37969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>11</v>
       </c>
@@ -38081,7 +38082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>12</v>
       </c>
@@ -38194,7 +38195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>12</v>
       </c>
@@ -38307,7 +38308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>12</v>
       </c>
@@ -38420,7 +38421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>12</v>
       </c>
@@ -38533,7 +38534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>12</v>
       </c>
@@ -38646,7 +38647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>13</v>
       </c>
@@ -38759,7 +38760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>13</v>
       </c>
@@ -38872,7 +38873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>13</v>
       </c>
@@ -38985,7 +38986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>13</v>
       </c>
@@ -39098,7 +39099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>13</v>
       </c>
@@ -39211,7 +39212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>13</v>
       </c>
@@ -39324,7 +39325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>13</v>
       </c>
@@ -39437,7 +39438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>13</v>
       </c>
@@ -39550,7 +39551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>13</v>
       </c>
@@ -39663,7 +39664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>13</v>
       </c>
@@ -39776,7 +39777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>13</v>
       </c>
@@ -39889,7 +39890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>13</v>
       </c>
@@ -40002,7 +40003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>13</v>
       </c>
@@ -40115,7 +40116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>13</v>
       </c>
@@ -40228,7 +40229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>13</v>
       </c>
@@ -40341,7 +40342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>13</v>
       </c>
@@ -40454,7 +40455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>13</v>
       </c>
@@ -40567,7 +40568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>13</v>
       </c>
@@ -40680,7 +40681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>13</v>
       </c>
@@ -40793,7 +40794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>13</v>
       </c>
@@ -40906,7 +40907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>13</v>
       </c>
@@ -41019,7 +41020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>13</v>
       </c>
@@ -41132,7 +41133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>13</v>
       </c>
@@ -41245,7 +41246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>13</v>
       </c>
@@ -41358,7 +41359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>13</v>
       </c>
@@ -41471,7 +41472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>13</v>
       </c>
@@ -41584,7 +41585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>13</v>
       </c>
@@ -41697,7 +41698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>13</v>
       </c>
@@ -41810,7 +41811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>13</v>
       </c>
@@ -41923,7 +41924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>13</v>
       </c>
@@ -42036,7 +42037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>13</v>
       </c>
@@ -42149,7 +42150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>13</v>
       </c>
@@ -42262,7 +42263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>14</v>
       </c>
@@ -42375,7 +42376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>14</v>
       </c>
@@ -42488,7 +42489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>14</v>
       </c>
@@ -42601,7 +42602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>14</v>
       </c>
@@ -42714,7 +42715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>14</v>
       </c>
@@ -42827,7 +42828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>14</v>
       </c>
@@ -42940,7 +42941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>14</v>
       </c>
@@ -43053,7 +43054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>14</v>
       </c>
@@ -43166,7 +43167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>14</v>
       </c>
@@ -43279,7 +43280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>14</v>
       </c>
@@ -43392,7 +43393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>14</v>
       </c>
@@ -43505,7 +43506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>14</v>
       </c>
@@ -43618,7 +43619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>14</v>
       </c>
@@ -43731,7 +43732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>14</v>
       </c>
@@ -43844,7 +43845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>14</v>
       </c>
@@ -43957,7 +43958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>14</v>
       </c>
@@ -44070,7 +44071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>14</v>
       </c>
@@ -44183,7 +44184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>14</v>
       </c>
@@ -44296,7 +44297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>14</v>
       </c>
@@ -44409,7 +44410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>14</v>
       </c>
@@ -44522,7 +44523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>14</v>
       </c>
@@ -44635,7 +44636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>14</v>
       </c>
@@ -44748,7 +44749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>14</v>
       </c>
@@ -44861,7 +44862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>14</v>
       </c>
@@ -44974,7 +44975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>14</v>
       </c>
@@ -45087,7 +45088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>14</v>
       </c>
@@ -45200,7 +45201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>14</v>
       </c>
@@ -45313,7 +45314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>14</v>
       </c>
@@ -45426,7 +45427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>14</v>
       </c>
@@ -45539,7 +45540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>15</v>
       </c>
@@ -45652,7 +45653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>15</v>
       </c>
@@ -45765,7 +45766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>15</v>
       </c>
@@ -45878,7 +45879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>15</v>
       </c>
@@ -45991,7 +45992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>15</v>
       </c>
@@ -46104,7 +46105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>15</v>
       </c>
@@ -46217,7 +46218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>15</v>
       </c>
@@ -46330,7 +46331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>15</v>
       </c>
@@ -46443,7 +46444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>15</v>
       </c>
@@ -46556,7 +46557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>15</v>
       </c>
@@ -46669,7 +46670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>15</v>
       </c>
@@ -46782,7 +46783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>15</v>
       </c>
@@ -46895,7 +46896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>15</v>
       </c>
@@ -47008,7 +47009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>15</v>
       </c>
@@ -47121,7 +47122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>15</v>
       </c>
@@ -47234,7 +47235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>15</v>
       </c>
@@ -47347,7 +47348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>15</v>
       </c>
@@ -47460,7 +47461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>16</v>
       </c>
@@ -47573,7 +47574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>16</v>
       </c>
@@ -47686,7 +47687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>16</v>
       </c>
@@ -47799,7 +47800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>16</v>
       </c>
@@ -47912,7 +47913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>16</v>
       </c>
@@ -48025,7 +48026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>16</v>
       </c>
@@ -48138,7 +48139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>16</v>
       </c>
@@ -48251,7 +48252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>16</v>
       </c>
@@ -48364,7 +48365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>16</v>
       </c>
@@ -48477,7 +48478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>16</v>
       </c>
@@ -48590,7 +48591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>16</v>
       </c>
@@ -48703,7 +48704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>16</v>
       </c>
@@ -48816,7 +48817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>16</v>
       </c>
@@ -48929,7 +48930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>16</v>
       </c>
@@ -49042,7 +49043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>16</v>
       </c>
@@ -49155,7 +49156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>16</v>
       </c>
@@ -49268,7 +49269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>16</v>
       </c>
@@ -49381,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>16</v>
       </c>
@@ -49494,7 +49495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>16</v>
       </c>
@@ -49607,7 +49608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>16</v>
       </c>
@@ -49720,7 +49721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>16</v>
       </c>
@@ -49833,7 +49834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>16</v>
       </c>
@@ -49946,7 +49947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>16</v>
       </c>
@@ -50059,7 +50060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>16</v>
       </c>
@@ -50172,7 +50173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>16</v>
       </c>
@@ -50285,7 +50286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>16</v>
       </c>
@@ -50398,7 +50399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>16</v>
       </c>
@@ -50511,7 +50512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>16</v>
       </c>
@@ -50624,7 +50625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>17</v>
       </c>
@@ -50737,7 +50738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>17</v>
       </c>
@@ -50850,7 +50851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>17</v>
       </c>
@@ -50963,7 +50964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>17</v>
       </c>
@@ -51076,7 +51077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>17</v>
       </c>
@@ -51189,7 +51190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>17</v>
       </c>
@@ -51302,7 +51303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>17</v>
       </c>
@@ -51415,7 +51416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>17</v>
       </c>
@@ -51528,7 +51529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>17</v>
       </c>
@@ -51641,7 +51642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>17</v>
       </c>
@@ -51754,7 +51755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>17</v>
       </c>
@@ -51867,7 +51868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>17</v>
       </c>
@@ -51980,7 +51981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>17</v>
       </c>
@@ -52093,7 +52094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>17</v>
       </c>
@@ -52206,7 +52207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>17</v>
       </c>
@@ -52319,7 +52320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>17</v>
       </c>
@@ -52432,7 +52433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>17</v>
       </c>
@@ -52545,7 +52546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>17</v>
       </c>
@@ -52658,7 +52659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>17</v>
       </c>
@@ -52771,7 +52772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>17</v>
       </c>
@@ -52884,7 +52885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>17</v>
       </c>
@@ -52997,7 +52998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>17</v>
       </c>
@@ -53110,7 +53111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>17</v>
       </c>
@@ -53223,7 +53224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>17</v>
       </c>
@@ -53336,7 +53337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>17</v>
       </c>
@@ -53449,7 +53450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>17</v>
       </c>
@@ -53562,7 +53563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>17</v>
       </c>
@@ -53675,7 +53676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>17</v>
       </c>
@@ -53788,7 +53789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>18</v>
       </c>
@@ -53901,7 +53902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>18</v>
       </c>
@@ -54014,7 +54015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>18</v>
       </c>
@@ -54127,7 +54128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>18</v>
       </c>
@@ -54240,7 +54241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>18</v>
       </c>
@@ -54353,7 +54354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>18</v>
       </c>
@@ -54466,7 +54467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>18</v>
       </c>
@@ -54579,7 +54580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>18</v>
       </c>
@@ -54692,7 +54693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>18</v>
       </c>
@@ -54805,7 +54806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>18</v>
       </c>
@@ -54918,7 +54919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>18</v>
       </c>
@@ -55031,7 +55032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>18</v>
       </c>
@@ -55144,7 +55145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>18</v>
       </c>
@@ -55257,7 +55258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>18</v>
       </c>
@@ -55370,7 +55371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>18</v>
       </c>
@@ -55483,7 +55484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>18</v>
       </c>
@@ -55596,7 +55597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>18</v>
       </c>
@@ -55709,7 +55710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>18</v>
       </c>
@@ -55822,7 +55823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>18</v>
       </c>
@@ -55935,7 +55936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>18</v>
       </c>
@@ -56048,7 +56049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>18</v>
       </c>
@@ -56161,7 +56162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>18</v>
       </c>
@@ -56274,7 +56275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>18</v>
       </c>
@@ -56387,7 +56388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>19</v>
       </c>
@@ -56500,7 +56501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>19</v>
       </c>
@@ -56613,7 +56614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="493" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>19</v>
       </c>
@@ -56726,7 +56727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>19</v>
       </c>
@@ -56839,7 +56840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>19</v>
       </c>
@@ -56952,7 +56953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>19</v>
       </c>
@@ -57065,7 +57066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>19</v>
       </c>
@@ -57178,7 +57179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>19</v>
       </c>
@@ -57291,7 +57292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>19</v>
       </c>
@@ -57404,7 +57405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>19</v>
       </c>
@@ -57517,7 +57518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>19</v>
       </c>
@@ -57630,7 +57631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>19</v>
       </c>
@@ -57743,7 +57744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>19</v>
       </c>
@@ -57856,7 +57857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>19</v>
       </c>
@@ -57969,7 +57970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>19</v>
       </c>
@@ -58082,7 +58083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>19</v>
       </c>
@@ -58195,7 +58196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>19</v>
       </c>
@@ -58308,7 +58309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>19</v>
       </c>
@@ -58421,7 +58422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>19</v>
       </c>
@@ -58534,7 +58535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>19</v>
       </c>
@@ -58647,7 +58648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>19</v>
       </c>
@@ -58760,7 +58761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>19</v>
       </c>
@@ -58873,7 +58874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>19</v>
       </c>
@@ -58986,7 +58987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>19</v>
       </c>
@@ -59099,7 +59100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>19</v>
       </c>
@@ -61509,20 +61510,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="66bf7750-57c3-4dc0-a650-18b9e3c1025f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="66bf7750-57c3-4dc0-a650-18b9e3c1025f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61545,14 +61546,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA65306C-DDFC-41F5-A944-AEEE100E8E2F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3662525-A715-498A-8C97-DC8990EB614E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -61567,4 +61560,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA65306C-DDFC-41F5-A944-AEEE100E8E2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>